--- a/Selenium-Scripts/src/appConfigFileHomeMove.xlsx
+++ b/Selenium-Scripts/src/appConfigFileHomeMove.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="StartingPage" sheetId="3" r:id="rId2"/>
-    <sheet name="LoginPage" sheetId="4" r:id="rId3"/>
-    <sheet name="Menu" sheetId="5" r:id="rId4"/>
-    <sheet name="HelpAndSupport" sheetId="6" r:id="rId5"/>
-    <sheet name="SetUp" sheetId="2" r:id="rId6"/>
+    <sheet name="HelpAndSupportPage" sheetId="10" r:id="rId2"/>
+    <sheet name="FeedBackPage" sheetId="7" r:id="rId3"/>
+    <sheet name="StartingPage" sheetId="3" r:id="rId4"/>
+    <sheet name="LoginPage" sheetId="4" r:id="rId5"/>
+    <sheet name="Menu" sheetId="5" r:id="rId6"/>
+    <sheet name="SetUp" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Key</t>
   </si>
@@ -89,9 +90,6 @@
     <t>searchField</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>//android.widget.TextView[@text='Help &amp; Support']</t>
   </si>
   <si>
@@ -110,10 +108,55 @@
     <t>//android.widget.EditText[@resource-id='com.Etisalat.ETIDA:id/ed_search']</t>
   </si>
   <si>
-    <t>FaqSection</t>
-  </si>
-  <si>
-    <t>//androidx.recyclerview.widget.RecyclerView[@resource-id='com.Etisalat.ETIDA:id/recyclerViewSearchFaq']</t>
+    <t>yesButton</t>
+  </si>
+  <si>
+    <t>noButton</t>
+  </si>
+  <si>
+    <t>supportMenu</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Support']</t>
+  </si>
+  <si>
+    <t>supportField</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='How much speed do I need for Internet?']</t>
+  </si>
+  <si>
+    <t>faq</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.Etisalat.ETIDA:id/btn_continue']</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.Etisalat.ETIDA:id/btn_cancel']</t>
+  </si>
+  <si>
+    <t>logoutButton</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.Etisalat.ETIDA:id/btn_logout']</t>
+  </si>
+  <si>
+    <t>ThanksText</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Thank you so much for your feedback!']</t>
+  </si>
+  <si>
+    <t>feedBackField</t>
+  </si>
+  <si>
+    <t>feedBackButton</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='com.Etisalat.ETIDA:id/ed_feedback']</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.Etisalat.ETIDA:id/btn_submit']</t>
   </si>
 </sst>
 </file>
@@ -139,6 +182,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -210,16 +254,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -517,19 +558,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -545,21 +586,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -569,19 +621,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,12 +641,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -604,19 +720,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,36 +740,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -666,16 +766,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,21 +783,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -706,19 +802,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,49 +822,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -782,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>

--- a/Selenium-Scripts/src/appConfigFileHomeMove.xlsx
+++ b/Selenium-Scripts/src/appConfigFileHomeMove.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>Key</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>//android.widget.TextView[@text='Home move']</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.Etisalat.ETIDA:id/btn_submit_request']</t>
+  </si>
+  <si>
+    <t>submitButton</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1011,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,6 +1115,14 @@
       </c>
       <c r="B11" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
